--- a/display_detection/Data_processing/pH_meter_ph50_DHS.xlsx
+++ b/display_detection/Data_processing/pH_meter_ph50_DHS.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\venv311\Detection_system_06_02_24\Data_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\camera_detection_system\display_detection\Data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B2AAF-A28B-4DE0-820B-C431EF6F4125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30519A33-BA53-4FF9-9BEE-E237269CEECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{68D7E8AA-431F-4CE5-8E9F-AE6B4096C999}"/>
   </bookViews>
   <sheets>
-    <sheet name="22.02.2024" sheetId="5" r:id="rId1"/>
-    <sheet name="Modell_2_3_2_14.02.2024" sheetId="4" r:id="rId2"/>
-    <sheet name="12.02.2024" sheetId="3" r:id="rId3"/>
-    <sheet name="09.02.2024" sheetId="2" r:id="rId4"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId5"/>
+    <sheet name="03.04.2024" sheetId="6" r:id="rId1"/>
+    <sheet name="22.02.2024" sheetId="5" r:id="rId2"/>
+    <sheet name="Modell_2_3_2_14.02.2024" sheetId="4" r:id="rId3"/>
+    <sheet name="12.02.2024" sheetId="3" r:id="rId4"/>
+    <sheet name="09.02.2024" sheetId="2" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="12">
   <si>
     <t>Measuring value1 and time</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t>added</t>
+  </si>
+  <si>
+    <t>.04.2024</t>
   </si>
 </sst>
 </file>
@@ -119,6 +123,508 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pH value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03.04.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'03.04.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.37844907407407408</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="h:mm:ss">
+                  <c:v>0.37922453703703707</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.37999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="h:mm:ss">
+                  <c:v>0.38056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="h:mm:ss">
+                  <c:v>0.3810648148148148</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="h:mm:ss">
+                  <c:v>0.38155092592592593</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="h:mm:ss">
+                  <c:v>0.38255787037037042</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="h:mm:ss">
+                  <c:v>0.38329861111111113</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="h:mm:ss">
+                  <c:v>0.38383101851851853</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="h:mm:ss">
+                  <c:v>0.38439814814814816</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="h:mm:ss">
+                  <c:v>0.38722222222222219</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="h:mm:ss">
+                  <c:v>0.38891203703703708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'03.04.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E48-44D4-B875-690831DC74FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1994226031"/>
+        <c:axId val="2004738319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1994226031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004738319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2004738319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pH</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994226031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -578,7 +1084,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1260,7 +1766,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1737,7 +2243,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2351,6 +2857,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4415,7 +4961,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00E023E-92A7-40F6-99A8-374A8834F9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4456,7 +5559,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4497,7 +5600,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4538,7 +5641,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4875,16 +5978,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AD898A-6389-4B81-8EC3-6CC4368FD086}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48D4A4-3A7F-459E-B8FB-3E904D21E060}">
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4900,106 +6003,253 @@
       <c r="J1" t="s">
         <v>0</v>
       </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <v>0.55797453703703703</v>
+        <v>0.37844907407407408</v>
       </c>
       <c r="D2" s="1">
-        <v>0.55873842592592593</v>
+        <v>0.37922453703703707</v>
       </c>
       <c r="F2" s="1">
-        <v>0.58008101851851845</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="H2" s="1">
-        <v>0.6206828703703704</v>
+        <v>0.38056712962962963</v>
       </c>
       <c r="J2" s="1">
-        <v>0.62199074074074068</v>
+        <v>0.3810648148148148</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.38155092592592593</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.38255787037037042</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.38329861111111113</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.38383101851851853</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.38439814814814816</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.38722222222222219</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.38891203703703708</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>6.87</v>
+        <v>9.81</v>
       </c>
       <c r="D3">
-        <v>6.87</v>
+        <v>9.14</v>
       </c>
       <c r="F3">
-        <v>6.87</v>
+        <v>9.24</v>
       </c>
       <c r="H3">
-        <v>4.67</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J3">
-        <v>4.67</v>
+        <v>9.39</v>
+      </c>
+      <c r="L3">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="N3">
+        <v>9.5</v>
+      </c>
+      <c r="P3">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="R3">
+        <v>8.36</v>
+      </c>
+      <c r="T3">
+        <v>8.14</v>
+      </c>
+      <c r="V3">
+        <v>8.64</v>
+      </c>
+      <c r="X3">
+        <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>45344</v>
+        <v>45385</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>45344</v>
+        <v>45385</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>45344</v>
+        <v>45385</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>45344</v>
+        <v>45385</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>45344</v>
+        <v>45385</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>45385</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>0.55797453703703703</v>
+        <v>0.37844907407407408</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.55873842592592593</v>
+        <v>0.37922453703703707</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.58008101851851845</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>0.6206828703703704</v>
+        <v>0.38056712962962963</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>0.62199074074074068</v>
+        <v>0.3810648148148148</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.38155092592592593</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.38255787037037042</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.38329861111111113</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.38383101851851853</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.38439814814814816</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.38722222222222219</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.38891203703703708</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5015,42 +6265,105 @@
       <c r="I7" t="s">
         <v>3</v>
       </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5066,72 +6379,177 @@
       <c r="I10" t="s">
         <v>4</v>
       </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6.87</v>
+        <v>9.81</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>6.87</v>
+        <v>9.14</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>6.87</v>
+        <v>9.24</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11">
-        <v>4.67</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
       <c r="I11">
-        <v>4.67</v>
+        <v>9.39</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
       </c>
+      <c r="K11">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>9.5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>8.36</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>8.14</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>8.64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>0.03</v>
+      </c>
+      <c r="X11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2.4</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>2.4</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>2.4</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
         <v>6</v>
       </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>20.9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>21</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>21</v>
+      </c>
+      <c r="V12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>21</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5162,237 +6580,639 @@
       <c r="J13" t="s">
         <v>8</v>
       </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>0.9531229</v>
+        <v>0.84629029035568204</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>0.94857323000000004</v>
+        <v>0.54348272085189797</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>0.95236604999999996</v>
+        <v>0.77032369375228804</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>0.81743180000000004</v>
+        <v>0.72453850507736195</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>0.85131442546844405</v>
+        <v>0.68964916467666604</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>0.58968687057495095</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>0.54996740818023604</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>0.59428346157073897</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>0.96525496244430498</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>0.94763702154159501</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>0.96040701866149902</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.55808812379837003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>0.66750240000000005</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
-        <v>0.6467136</v>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15">
-        <v>0.64668583999999996</v>
+      <c r="F15" t="s">
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15">
-        <v>0.82605565000000003</v>
+      <c r="H15" t="s">
+        <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="J15">
-        <v>0.79611325263976995</v>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>0.94943299999999997</v>
+        <v>0.63154715299606301</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.94891864000000004</v>
+        <v>0.85827970504760698</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.94467630000000002</v>
+        <v>0.96229672431945801</v>
       </c>
       <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0.866879642009735</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0.87491881847381503</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>0.92938357591628995</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>0.92011755704879705</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>0.91966819763183505</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>0.90373343229293801</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0.86326515674590998</v>
+      </c>
+      <c r="U16">
         <v>6</v>
       </c>
-      <c r="H16">
-        <v>0.9483781</v>
-      </c>
-      <c r="I16">
+      <c r="V16">
+        <v>0.44489872455596902</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.92651116847991899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.66997575759887695</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.91379022598266602</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>0.94316369295120195</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.93942618370056097</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>0.86885362863540605</v>
+      </c>
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="J16">
-        <v>0.92931276559829701</v>
+      <c r="L17">
+        <v>0.98234158754348699</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.92283409833908003</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>0.93098378181457497</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>0.98030602931976296</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>0.93234103918075495</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>0.931776642799377</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>0.94320195913314797</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0.84263456000000003</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>0.80604184000000001</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>0.83337550000000005</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>0.87401532999999998</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
-        <v>0.85354441404342596</v>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.91529870033264105</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.67917269468307495</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.90102893114089899</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0.92275077104568404</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.92119467258453303</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.80446738004684404</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>0.925553739070892</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>0.92353737354278498</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>0.91564792394637995</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>0.645474553108215</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>0.90997022390365601</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>0.909177005290985</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>0.95956032999999996</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0.95752760000000003</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.95520746999999995</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>0.86499375000000001</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>0.48075944185256902</v>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.82337784767150801</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.85517549514770497</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.85882979631423895</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.86360043287277199</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.84807336330413796</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.84044265747070301</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.84988647699356001</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0.84185367822647095</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.97601193189620905</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.879921615123748</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0.83262318372726396</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0.79444932937622004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0.75595003000000005</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>0.72755926999999998</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>0.80988073000000005</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0.88611930000000005</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>0.87096625999999999</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>0.77767973999999995</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>0.86200330000000003</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>0.57497805000000002</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.82248973846435502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.95474380254745395</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.94864201545715299</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.94574707746505704</v>
+      </c>
       <c r="G21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.77734625000000002</v>
+        <v>0.95256906747817904</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.94975292682647705</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.95264881849288896</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.95139515399932795</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.94724977016448897</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <v>0.88795655965804998</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0.94742769002914395</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0.94682115316390902</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0.95209366083145097</v>
       </c>
     </row>
   </sheetData>
@@ -5402,6 +7222,533 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AD898A-6389-4B81-8EC3-6CC4368FD086}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.55797453703703703</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.55873842592592593</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.58008101851851845</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.6206828703703704</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.62199074074074068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>6.87</v>
+      </c>
+      <c r="D3">
+        <v>6.87</v>
+      </c>
+      <c r="F3">
+        <v>6.87</v>
+      </c>
+      <c r="H3">
+        <v>4.67</v>
+      </c>
+      <c r="J3">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.55797453703703703</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.55873842592592593</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.58008101851851845</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.6206828703703704</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.62199074074074068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6.87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6.87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6.87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4.67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>4.67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2.4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>2.4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>20.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.9531229</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0.94857323000000004</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0.95236604999999996</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.81743180000000004</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0.85131442546844405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0.66750240000000005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>0.6467136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>0.64668583999999996</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>0.82605565000000003</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>0.79611325263976995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.94943299999999997</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0.94891864000000004</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0.94467630000000002</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>0.9483781</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0.92931276559829701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.84263456000000003</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0.80604184000000001</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0.83337550000000005</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>0.87401532999999998</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>0.85354441404342596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.95956032999999996</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.95752760000000003</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.95520746999999995</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0.86499375000000001</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.48075944185256902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.75595003000000005</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0.72755926999999998</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0.80988073000000005</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.88611930000000005</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.87096625999999999</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0.77767973999999995</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0.86200330000000003</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>0.57497805000000002</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.82248973846435502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>0.77734625000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7344E3F-F450-4054-9BC0-72F1A9E27D3D}">
   <dimension ref="A1:CF21"/>
   <sheetViews>
@@ -9603,7 +11950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F01711-CC11-4E09-9E94-CE989B2B5136}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -10004,7 +12351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F008729A-6BBB-433F-AB2F-7C46EC5EAE2F}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -10450,7 +12797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA23436-E2B2-45E2-A30E-64750E50457E}">
   <dimension ref="A1"/>
   <sheetViews>
